--- a/medicine/Enfance/Katherine_Hall_Page/Katherine_Hall_Page.xlsx
+++ b/medicine/Enfance/Katherine_Hall_Page/Katherine_Hall_Page.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Katherine Hall Page, née en 1947 dans le New Jersey, aux États-Unis, est une femme de lettres américaine, auteure de roman policier et de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fait des études à la Livingston High School, au Wellesley College et à l'université Harvard. Elle se destine ensuite à l'enseigne de l'anglais et de l'histoire, avant d'être nommée directrice d'un programme d'éducation spécialisée.
 En 1990, elle publie son premier roman, The Body in the Belfry, qui inaugure la série policière Faith Fairchild et pour lequel elle est lauréate du prix Agatha dans la catégorie meilleur premier roman. Le quinzième roman de la série, intitulé The Body in the Snowdrift, remporte le prix Agatha du meilleur roman.
@@ -546,9 +560,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Faith Fairchild
-The Body in the Belfry (1990)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Faith Fairchild</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The Body in the Belfry (1990)
 The Body in the Kelp (1990)
 The Body in the Bouillon (1991)
 The Body in the Vestibule (1992)
@@ -572,16 +594,7 @@
 The Body in the Birches (2015)
 The Body in the Wardrobe (2016)
 The Body in the Casket (2017)
-The Body in the Wake (2019)
-Série Christie and Company
-Christie and Company (1996)
-Down East (1997)
-In the Year of the Dragon (1997)
-Bon Voyage (1999)
-Autre roman
-Club Meds (2006)
-Autre ouvrage
-Have Faith in Your Kitchen (2010)</t>
+The Body in the Wake (2019)</t>
         </is>
       </c>
     </row>
@@ -606,21 +619,179 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Christie and Company</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Christie and Company (1996)
+Down East (1997)
+In the Year of the Dragon (1997)
+Bon Voyage (1999)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Katherine_Hall_Page</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Katherine_Hall_Page</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autre roman</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Club Meds (2006)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Katherine_Hall_Page</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Katherine_Hall_Page</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autre ouvrage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Have Faith in Your Kitchen (2010)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Katherine_Hall_Page</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Katherine_Hall_Page</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Prix Agatha 1990 du meilleur premier roman pour The Body in the Belfry[1]
-Prix Agatha 2001 de la meilleure nouvelle pour The Would-Be-Widower[1]
-Prix Agatha 2005 du meilleur roman pour The Body in the Snowdrift[1]
-Grand Master Award 2024[2]
-Nominations
-Prix Edgar-Allan-Poe 1998 de la meilleure œuvre pour la jeunesse pour Down East[3]
-Prix Agatha 2002 du meilleur roman pour The Body In The Bonfire[1]
-Prix Mary Higgins Clark 2004 pour The Body in the Lighthouse[3]
-Prix Agatha 2010 de la meilleure œuvre de non fiction pour Have Faith in Your Kitchen[4]</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Prix Agatha 1990 du meilleur premier roman pour The Body in the Belfry
+Prix Agatha 2001 de la meilleure nouvelle pour The Would-Be-Widower
+Prix Agatha 2005 du meilleur roman pour The Body in the Snowdrift
+Grand Master Award 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Katherine_Hall_Page</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Katherine_Hall_Page</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Prix Edgar-Allan-Poe 1998 de la meilleure œuvre pour la jeunesse pour Down East
+Prix Agatha 2002 du meilleur roman pour The Body In The Bonfire
+Prix Mary Higgins Clark 2004 pour The Body in the Lighthouse
+Prix Agatha 2010 de la meilleure œuvre de non fiction pour Have Faith in Your Kitchen</t>
         </is>
       </c>
     </row>
